--- a/data/trans_orig/P16B03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BED59E17-47F4-440B-ADE1-8F7C11406713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF558B20-CCF6-4DCC-A0D9-F94E25B75D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{44AB9B4E-D9E8-41C0-9067-9FC7A264EEAA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63BB5145-2A0B-4ABC-B54C-6E9FC27D0AB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="273">
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2007 (Tasa respuesta: 3,62%)</t>
   </si>
@@ -112,49 +112,49 @@
     <t>82,48%</t>
   </si>
   <si>
-    <t>53,74%</t>
+    <t>53,07%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>46,26%</t>
+    <t>46,93%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -163,16 +163,16 @@
     <t>76,92%</t>
   </si>
   <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>85,84%</t>
+    <t>84,75%</t>
   </si>
   <si>
     <t>98,25%</t>
@@ -181,19 +181,19 @@
     <t>89,02%</t>
   </si>
   <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
   </si>
   <si>
     <t>5,48%</t>
@@ -202,16 +202,16 @@
     <t>1,75%</t>
   </si>
   <si>
-    <t>14,16%</t>
+    <t>15,25%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -223,19 +223,19 @@
     <t>90,05%</t>
   </si>
   <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>92,12%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -244,19 +244,19 @@
     <t>9,95%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -265,109 +265,109 @@
     <t>61,99%</t>
   </si>
   <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>81,43%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>75,05%</t>
   </si>
   <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>38,01%</t>
   </si>
   <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
   </si>
   <si>
     <t>24,95%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>23,64%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -382,7 +382,7 @@
     <t>83,44%</t>
   </si>
   <si>
-    <t>23,48%</t>
+    <t>24,12%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -391,7 +391,7 @@
     <t>16,56%</t>
   </si>
   <si>
-    <t>76,52%</t>
+    <t>75,88%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -400,124 +400,124 @@
     <t>96,84%</t>
   </si>
   <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
     <t>30,57%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
     <t>81,52%</t>
   </si>
   <si>
-    <t>52,58%</t>
+    <t>52,57%</t>
   </si>
   <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>18,48%</t>
   </si>
   <si>
-    <t>47,42%</t>
+    <t>47,43%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>37,57%</t>
+    <t>32,27%</t>
   </si>
   <si>
     <t>89,46%</t>
   </si>
   <si>
-    <t>97,82%</t>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>71,99%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>62,43%</t>
+    <t>67,73%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>2,18%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
+    <t>28,01%</t>
   </si>
   <si>
     <t>79,78%</t>
   </si>
   <si>
-    <t>51,87%</t>
+    <t>52,04%</t>
   </si>
   <si>
     <t>93,74%</t>
@@ -526,7 +526,7 @@
     <t>95,26%</t>
   </si>
   <si>
-    <t>87,07%</t>
+    <t>87,32%</t>
   </si>
   <si>
     <t>98,54%</t>
@@ -535,10 +535,10 @@
     <t>92,44%</t>
   </si>
   <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>20,22%</t>
@@ -547,7 +547,7 @@
     <t>6,26%</t>
   </si>
   <si>
-    <t>48,13%</t>
+    <t>47,96%</t>
   </si>
   <si>
     <t>4,74%</t>
@@ -556,64 +556,70 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>12,93%</t>
+    <t>12,68%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
   </si>
   <si>
     <t>91,47%</t>
   </si>
   <si>
-    <t>94,47%</t>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>5,53%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2015 (Tasa respuesta: 2,69%)</t>
@@ -637,232 +643,220 @@
     <t>97,06%</t>
   </si>
   <si>
-    <t>84,99%</t>
+    <t>83,74%</t>
   </si>
   <si>
     <t>97,31%</t>
   </si>
   <si>
-    <t>83,55%</t>
-  </si>
-  <si>
     <t>44,41%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>15,01%</t>
+    <t>16,26%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
     <t>71,34%</t>
   </si>
   <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>79,7%</t>
+    <t>81,08%</t>
   </si>
   <si>
     <t>87,65%</t>
   </si>
   <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>28,66%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>20,3%</t>
+    <t>18,92%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
   </si>
   <si>
     <t>82,97%</t>
   </si>
   <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>84,9%</t>
   </si>
   <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
   </si>
   <si>
     <t>58,2%</t>
   </si>
   <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>75,74%</t>
   </si>
   <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>41,8%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>85,13%</t>
   </si>
   <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F45820-EF45-4CDD-806E-8C7EAA1B3BDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB57A4BE-FD40-4F7A-928B-1B65D182B1A6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2337,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC9F12E-83F3-43D8-A7D9-6577F6371BEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34A5773-ED58-415B-90BF-D271C2686021}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2944,10 +2938,10 @@
         <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -2956,13 +2950,13 @@
         <v>51724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,7 +2992,7 @@
         <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3007,10 +3001,10 @@
         <v>7909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>157</v>
@@ -3269,10 +3263,10 @@
         <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3281,13 @@
         <v>8684</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3302,13 +3296,13 @@
         <v>13204</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -3317,13 +3311,13 @@
         <v>21889</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,7 +3394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DDACFF-7A80-4A8C-B74E-CD8176A06FAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEA75EE-341A-470E-8255-9686799D5DC1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3417,7 +3411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3527,7 +3521,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3557,7 +3551,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3581,7 +3575,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3611,7 +3605,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,7 +3676,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3694,10 +3688,10 @@
         <v>29674</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3709,10 +3703,10 @@
         <v>32505</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3736,7 +3730,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3745,13 +3739,13 @@
         <v>899</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3760,13 +3754,13 @@
         <v>898</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,10 +3983,10 @@
         <v>9782</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4004,13 +3998,13 @@
         <v>25376</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -4019,13 +4013,13 @@
         <v>35158</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4034,13 @@
         <v>1047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -4055,13 +4049,13 @@
         <v>5207</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4070,13 +4064,13 @@
         <v>6254</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4138,13 @@
         <v>8441</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4159,13 +4153,13 @@
         <v>39464</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -4174,13 +4168,13 @@
         <v>47905</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4189,13 @@
         <v>6062</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4210,13 +4204,13 @@
         <v>9286</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4225,13 +4219,13 @@
         <v>15348</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4293,13 @@
         <v>31892</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>118</v>
@@ -4314,13 +4308,13 @@
         <v>127592</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -4329,13 +4323,13 @@
         <v>159485</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4344,13 @@
         <v>10586</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -4365,13 +4359,13 @@
         <v>17262</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -4380,13 +4374,13 @@
         <v>27848</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF558B20-CCF6-4DCC-A0D9-F94E25B75D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF411DED-2461-4A03-9C60-CEBD4758455E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63BB5145-2A0B-4ABC-B54C-6E9FC27D0AB3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A04C38CA-0ACF-4205-8A14-DBA9BDA2D1AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="277">
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2007 (Tasa respuesta: 3,62%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -106,115 +106,115 @@
     <t>17,08%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>82,48%</t>
   </si>
   <si>
-    <t>53,07%</t>
+    <t>53,09%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>46,93%</t>
+    <t>46,91%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -223,19 +223,19 @@
     <t>90,05%</t>
   </si>
   <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>92,12%</t>
   </si>
   <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -244,19 +244,19 @@
     <t>9,95%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -265,109 +265,109 @@
     <t>61,99%</t>
   </si>
   <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
   </si>
   <si>
     <t>81,43%</t>
   </si>
   <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>75,05%</t>
   </si>
   <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>38,01%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
   </si>
   <si>
     <t>24,95%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>23,64%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -400,13 +400,13 @@
     <t>96,84%</t>
   </si>
   <si>
-    <t>83,8%</t>
+    <t>86,94%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>85,88%</t>
+    <t>87,3%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -415,448 +415,460 @@
     <t>3,16%</t>
   </si>
   <si>
-    <t>16,2%</t>
+    <t>13,06%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>14,12%</t>
+    <t>12,7%</t>
   </si>
   <si>
     <t>81,52%</t>
   </si>
   <si>
-    <t>52,57%</t>
+    <t>45,95%</t>
   </si>
   <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>18,48%</t>
   </si>
   <si>
-    <t>47,43%</t>
+    <t>54,05%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>32,27%</t>
+    <t>34,37%</t>
   </si>
   <si>
     <t>89,46%</t>
   </si>
   <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>71,99%</t>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>67,73%</t>
+    <t>65,63%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>28,01%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
   </si>
   <si>
     <t>79,78%</t>
   </si>
   <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>92,44%</t>
   </si>
   <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>64,37%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2016 (Tasa respuesta: 2,69%)</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
   </si>
   <si>
     <t>90,34%</t>
   </si>
   <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2015 (Tasa respuesta: 2,69%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
+    <t>42,47%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
   </si>
   <si>
     <t>58,2%</t>
   </si>
   <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>67,25%</t>
   </si>
   <si>
     <t>75,74%</t>
   </si>
   <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>41,8%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
+    <t>32,75%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>85,13%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB57A4BE-FD40-4F7A-928B-1B65D182B1A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A154466-698F-4410-952F-8429110EE2A1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2331,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34A5773-ED58-415B-90BF-D271C2686021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015C7B72-471D-4A48-8CE1-84A31BC695D6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2956,7 +2968,7 @@
         <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2983,13 @@
         <v>2948</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2986,13 +2998,13 @@
         <v>4962</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3001,13 +3013,13 @@
         <v>7909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3087,13 @@
         <v>10901</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -3090,13 +3102,13 @@
         <v>58361</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -3105,13 +3117,13 @@
         <v>69262</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3138,13 @@
         <v>2763</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3141,13 +3153,13 @@
         <v>2902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -3156,13 +3168,13 @@
         <v>5665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3242,13 @@
         <v>35005</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H19" s="7">
         <v>183</v>
@@ -3245,13 +3257,13 @@
         <v>199826</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>214</v>
@@ -3260,13 +3272,13 @@
         <v>234830</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3293,13 @@
         <v>8684</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3296,13 +3308,13 @@
         <v>13204</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -3311,13 +3323,13 @@
         <v>21889</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,7 +3406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEA75EE-341A-470E-8255-9686799D5DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220E99A3-105B-4166-A3B9-F54B3ED8BD81}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3411,7 +3423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3521,7 +3533,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3551,7 +3563,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3575,7 +3587,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3605,7 +3617,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,7 +3688,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3688,10 +3700,10 @@
         <v>29674</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3703,10 +3715,10 @@
         <v>32505</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3730,7 +3742,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3739,13 +3751,13 @@
         <v>899</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3754,13 +3766,13 @@
         <v>898</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3840,13 @@
         <v>8659</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3843,10 +3855,10 @@
         <v>29317</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -3858,13 +3870,13 @@
         <v>37976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3891,13 @@
         <v>3478</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -3894,13 +3906,13 @@
         <v>1870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -3909,13 +3921,13 @@
         <v>5349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,10 +3995,10 @@
         <v>9782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3998,13 +4010,13 @@
         <v>25376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -4013,13 +4025,13 @@
         <v>35158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4046,13 @@
         <v>1047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -4049,13 +4061,13 @@
         <v>5207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4064,13 +4076,13 @@
         <v>6254</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4150,13 @@
         <v>8441</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4153,13 +4165,13 @@
         <v>39464</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -4168,13 +4180,13 @@
         <v>47905</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4201,13 @@
         <v>6062</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4204,13 +4216,13 @@
         <v>9286</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4219,13 +4231,13 @@
         <v>15348</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4305,13 @@
         <v>31892</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H19" s="7">
         <v>118</v>
@@ -4308,13 +4320,13 @@
         <v>127592</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -4323,13 +4335,13 @@
         <v>159485</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4356,13 @@
         <v>10586</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -4359,13 +4371,13 @@
         <v>17262</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -4374,13 +4386,13 @@
         <v>27848</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF411DED-2461-4A03-9C60-CEBD4758455E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9131C0C-B2D9-440E-BD2A-758FB7B73B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A04C38CA-0ACF-4205-8A14-DBA9BDA2D1AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F04C00F-2F38-4104-8F27-6FC688FF5279}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="275">
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2007 (Tasa respuesta: 3,62%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -112,49 +112,49 @@
     <t>82,48%</t>
   </si>
   <si>
-    <t>53,09%</t>
+    <t>53,74%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>46,91%</t>
+    <t>46,26%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -163,55 +163,55 @@
     <t>76,92%</t>
   </si>
   <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -223,19 +223,19 @@
     <t>90,05%</t>
   </si>
   <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>92,12%</t>
   </si>
   <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -244,19 +244,19 @@
     <t>9,95%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -265,610 +265,604 @@
     <t>61,99%</t>
   </si>
   <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
   </si>
   <si>
     <t>81,43%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
   </si>
   <si>
     <t>75,05%</t>
   </si>
   <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
   </si>
   <si>
     <t>38,01%</t>
   </si>
   <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
   </si>
   <si>
     <t>24,95%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>84,17%</t>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2016 (Tasa respuesta: 2,69%)</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>93,34%</t>
   </si>
   <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2016 (Tasa respuesta: 2,69%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
+    <t>34,4%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
   </si>
   <si>
     <t>58,2%</t>
   </si>
   <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>67,25%</t>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>75,74%</t>
   </si>
   <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>41,8%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>32,75%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>85,13%</t>
   </si>
   <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A154466-698F-4410-952F-8429110EE2A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFF192E-AD1D-4BF6-8884-C044A27504FF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2343,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015C7B72-471D-4A48-8CE1-84A31BC695D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747789CD-5A10-4F3C-9C53-481EA0ACAB7C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2950,10 +2944,10 @@
         <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -2962,13 +2956,13 @@
         <v>51724</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2977,13 @@
         <v>2948</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2998,13 +2992,13 @@
         <v>4962</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3013,13 +3007,13 @@
         <v>7909</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3081,13 @@
         <v>10901</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -3102,13 +3096,13 @@
         <v>58361</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -3117,13 +3111,13 @@
         <v>69262</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3132,13 @@
         <v>2763</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3153,13 +3147,13 @@
         <v>2902</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -3168,13 +3162,13 @@
         <v>5665</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3236,13 @@
         <v>35005</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H19" s="7">
         <v>183</v>
@@ -3257,13 +3251,13 @@
         <v>199826</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>214</v>
@@ -3272,13 +3266,13 @@
         <v>234830</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3287,13 @@
         <v>8684</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3308,13 +3302,13 @@
         <v>13204</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -3323,13 +3317,13 @@
         <v>21889</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,7 +3400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220E99A3-105B-4166-A3B9-F54B3ED8BD81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A3EF6E-B798-48EA-8006-7BDCACAA317B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3423,7 +3417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3533,7 +3527,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3563,7 +3557,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3587,7 +3581,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3617,7 +3611,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,7 +3682,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3700,10 +3694,10 @@
         <v>29674</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3715,10 +3709,10 @@
         <v>32505</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3742,7 +3736,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3751,13 +3745,13 @@
         <v>899</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3766,13 +3760,13 @@
         <v>898</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3834,13 @@
         <v>8659</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3855,10 +3849,10 @@
         <v>29317</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -3870,13 +3864,13 @@
         <v>37976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3885,13 @@
         <v>3478</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -3906,13 +3900,13 @@
         <v>1870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -3921,13 +3915,13 @@
         <v>5349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,10 +3989,10 @@
         <v>9782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4010,13 +4004,13 @@
         <v>25376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -4025,13 +4019,13 @@
         <v>35158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4040,13 @@
         <v>1047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -4061,13 +4055,13 @@
         <v>5207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4076,13 +4070,13 @@
         <v>6254</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4144,13 @@
         <v>8441</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4165,13 +4159,13 @@
         <v>39464</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -4180,13 +4174,13 @@
         <v>47905</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4195,13 @@
         <v>6062</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4216,13 +4210,13 @@
         <v>9286</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4231,13 +4225,13 @@
         <v>15348</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4299,13 @@
         <v>31892</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H19" s="7">
         <v>118</v>
@@ -4320,13 +4314,13 @@
         <v>127592</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -4335,13 +4329,13 @@
         <v>159485</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4350,13 @@
         <v>10586</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -4371,13 +4365,13 @@
         <v>17262</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -4386,13 +4380,13 @@
         <v>27848</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9131C0C-B2D9-440E-BD2A-758FB7B73B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C05F82BB-938D-400A-9CCD-250B9D0EF117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F04C00F-2F38-4104-8F27-6FC688FF5279}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{98C78282-A328-4E7A-905F-AB8EFA27CA73}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="262">
   <si>
     <t>Porcentaje de reconstituyentes recetados en 2007 (Tasa respuesta: 3,62%)</t>
   </si>
@@ -67,598 +67,559 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2012 (Tasa respuesta: 3,6%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
+    <t>Porcentaje de reconstituyentes recetados en 2016 (Tasa respuesta: 2,69%)</t>
   </si>
   <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>Porcentaje de reconstituyentes recetados en 2016 (Tasa respuesta: 2,69%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>71,34%</t>
@@ -1274,8 +1235,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFF192E-AD1D-4BF6-8884-C044A27504FF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5F8AD4-855C-44F5-B75B-BD50C0A0E24D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1392,10 +1353,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>1022</v>
+        <v>10291</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1407,85 +1368,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>7771</v>
+        <v>33085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>8793</v>
+        <v>43375</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1969</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3017</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>4987</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1494,153 +1455,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>1022</v>
+        <v>12260</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I6" s="7">
-        <v>7771</v>
+        <v>36102</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="N6" s="7">
-        <v>8793</v>
+        <v>48362</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>9269</v>
+        <v>18070</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>25314</v>
+        <v>48768</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="N7" s="7">
-        <v>34582</v>
+        <v>66838</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>1969</v>
+        <v>5421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>3017</v>
+        <v>2826</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>4987</v>
+        <v>8247</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,153 +1610,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7">
-        <v>11238</v>
+        <v>23491</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I9" s="7">
-        <v>28331</v>
+        <v>51594</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="N9" s="7">
-        <v>39569</v>
+        <v>75085</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>18070</v>
+        <v>9666</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7">
+        <v>33</v>
+      </c>
+      <c r="I10" s="7">
+        <v>33094</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="7">
         <v>40</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="7">
-        <v>47</v>
-      </c>
-      <c r="I10" s="7">
-        <v>48768</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="7">
-        <v>62</v>
-      </c>
       <c r="N10" s="7">
-        <v>66838</v>
+        <v>42761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
-        <v>5421</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
       <c r="I11" s="7">
-        <v>2826</v>
+        <v>3656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>8247</v>
+        <v>3656</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,153 +1765,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>23491</v>
+        <v>9666</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I12" s="7">
-        <v>51594</v>
+        <v>36750</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="N12" s="7">
-        <v>75085</v>
+        <v>46417</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>9666</v>
+        <v>14447</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>33094</v>
+        <v>38853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>42761</v>
+        <v>53300</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>8857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>3656</v>
+        <v>8861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N14" s="7">
-        <v>3656</v>
+        <v>17718</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,153 +1920,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7">
-        <v>9666</v>
+        <v>23304</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I15" s="7">
-        <v>36750</v>
+        <v>47714</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="N15" s="7">
-        <v>46417</v>
+        <v>71018</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D16" s="7">
-        <v>14447</v>
+        <v>52475</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="I16" s="7">
-        <v>38853</v>
+        <v>153800</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="N16" s="7">
-        <v>53300</v>
+        <v>206274</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
-        <v>10</v>
-      </c>
       <c r="D17" s="7">
-        <v>8857</v>
+        <v>16247</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>8861</v>
+        <v>18361</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N17" s="7">
-        <v>17718</v>
+        <v>34608</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,217 +2075,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D18" s="7">
-        <v>23304</v>
+        <v>68722</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="I18" s="7">
-        <v>47714</v>
+        <v>172161</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="N18" s="7">
-        <v>71018</v>
+        <v>240882</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>49</v>
-      </c>
-      <c r="D19" s="7">
-        <v>52475</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="7">
-        <v>152</v>
-      </c>
-      <c r="I19" s="7">
-        <v>153799</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M19" s="7">
-        <v>201</v>
-      </c>
-      <c r="N19" s="7">
-        <v>206274</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>16</v>
-      </c>
-      <c r="D20" s="7">
-        <v>16247</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="A19" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="7">
-        <v>19</v>
-      </c>
-      <c r="I20" s="7">
-        <v>18361</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" s="7">
-        <v>35</v>
-      </c>
-      <c r="N20" s="7">
-        <v>34608</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>65</v>
-      </c>
-      <c r="D21" s="7">
-        <v>68722</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>171</v>
-      </c>
-      <c r="I21" s="7">
-        <v>172160</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>236</v>
-      </c>
-      <c r="N21" s="7">
-        <v>240882</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2337,8 +2142,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747789CD-5A10-4F3C-9C53-481EA0ACAB7C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF661259-9963-44DA-8ABC-D622634F4046}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2354,7 +2159,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2455,55 +2260,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4944</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>4094</v>
+        <v>36357</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>4094</v>
+        <v>41301</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -2512,43 +2317,43 @@
         <v>813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1866</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>812</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,66 +2362,66 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>813</v>
+        <v>5757</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="I6" s="7">
-        <v>4094</v>
+        <v>37411</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="N6" s="7">
-        <v>4906</v>
+        <v>43167</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>4944</v>
+        <v>9530</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>118</v>
@@ -2625,10 +2430,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I7" s="7">
-        <v>32263</v>
+        <v>63013</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>119</v>
@@ -2637,73 +2442,73 @@
         <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="N7" s="7">
-        <v>37207</v>
+        <v>72543</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>2161</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>1054</v>
+        <v>4287</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>1054</v>
+        <v>6448</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,153 +2517,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>4944</v>
+        <v>11691</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I9" s="7">
-        <v>33317</v>
+        <v>67300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="N9" s="7">
-        <v>38261</v>
+        <v>78991</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>9530</v>
+        <v>9630</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>63013</v>
+        <v>42093</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>72543</v>
+        <v>51724</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2161</v>
+        <v>2948</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>4287</v>
+        <v>4962</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>6448</v>
+        <v>7909</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,153 +2672,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>11691</v>
+        <v>12578</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I12" s="7">
-        <v>67300</v>
+        <v>47055</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="N12" s="7">
-        <v>78991</v>
+        <v>59633</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>9630</v>
+        <v>10901</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>42093</v>
+        <v>58361</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N13" s="7">
-        <v>51724</v>
+        <v>69262</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>2948</v>
+        <v>2763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>4962</v>
+        <v>2902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>7909</v>
+        <v>5665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,153 +2827,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>12578</v>
+        <v>13664</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>47055</v>
+        <v>61263</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="N15" s="7">
-        <v>59633</v>
+        <v>74927</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>10901</v>
+        <v>35005</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="I16" s="7">
-        <v>58361</v>
+        <v>199826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="N16" s="7">
-        <v>69262</v>
+        <v>234830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>2763</v>
+        <v>8684</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I17" s="7">
-        <v>2902</v>
+        <v>13204</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N17" s="7">
-        <v>5665</v>
+        <v>21889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,217 +2982,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7">
-        <v>13664</v>
+        <v>43689</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="I18" s="7">
-        <v>61263</v>
+        <v>213030</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="N18" s="7">
-        <v>74927</v>
+        <v>256719</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>31</v>
-      </c>
-      <c r="D19" s="7">
-        <v>35005</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="7">
-        <v>183</v>
-      </c>
-      <c r="I19" s="7">
-        <v>199826</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M19" s="7">
-        <v>214</v>
-      </c>
-      <c r="N19" s="7">
-        <v>234830</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>8</v>
-      </c>
-      <c r="D20" s="7">
-        <v>8684</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H20" s="7">
-        <v>12</v>
-      </c>
-      <c r="I20" s="7">
-        <v>13204</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M20" s="7">
-        <v>20</v>
-      </c>
-      <c r="N20" s="7">
-        <v>21889</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>39</v>
-      </c>
-      <c r="D21" s="7">
-        <v>43689</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>195</v>
-      </c>
-      <c r="I21" s="7">
-        <v>213030</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>234</v>
-      </c>
-      <c r="N21" s="7">
-        <v>256719</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
+      <c r="A19" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3400,8 +3049,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A3EF6E-B798-48EA-8006-7BDCACAA317B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9E277B-0473-4D7A-94E2-FC062D9C46AC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3417,7 +3066,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3518,46 +3167,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>2179</v>
+        <v>5009</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>3761</v>
+        <v>33435</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>5939</v>
+        <v>38444</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3566,7 +3215,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3575,43 +3224,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>899</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>899</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,153 +3269,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>2179</v>
+        <v>5009</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>3761</v>
+        <v>34334</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="N6" s="7">
-        <v>5939</v>
+        <v>39343</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>2830</v>
+        <v>8659</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="7">
+        <v>27</v>
+      </c>
+      <c r="I7" s="7">
+        <v>29317</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="7">
-        <v>28</v>
-      </c>
-      <c r="I7" s="7">
-        <v>29674</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>36</v>
+      </c>
+      <c r="N7" s="7">
+        <v>37976</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>31</v>
-      </c>
-      <c r="N7" s="7">
-        <v>32505</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>3478</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>899</v>
+        <v>1870</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>898</v>
+        <v>5349</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,54 +3424,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>2830</v>
+        <v>12137</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>30573</v>
+        <v>31187</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N9" s="7">
-        <v>33403</v>
+        <v>43325</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3831,97 +3480,97 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>8659</v>
+        <v>9782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>29317</v>
+        <v>25376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>37976</v>
+        <v>35158</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>3478</v>
+        <v>1047</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>1870</v>
+        <v>5207</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>5349</v>
+        <v>6254</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,54 +3579,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>12137</v>
+        <v>10829</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
       </c>
       <c r="I12" s="7">
-        <v>31187</v>
+        <v>30583</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N12" s="7">
-        <v>43325</v>
+        <v>41412</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3986,97 +3635,97 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>9782</v>
+        <v>8441</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>25376</v>
+        <v>39464</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>35158</v>
+        <v>47905</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>1047</v>
+        <v>6062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>5207</v>
+        <v>9286</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N14" s="7">
-        <v>6254</v>
+        <v>15348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,153 +3734,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>10829</v>
+        <v>14503</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I15" s="7">
-        <v>30583</v>
+        <v>48750</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="N15" s="7">
-        <v>41412</v>
+        <v>63253</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7">
-        <v>8441</v>
+        <v>31892</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="I16" s="7">
-        <v>39464</v>
+        <v>127592</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="N16" s="7">
-        <v>47905</v>
+        <v>159485</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>6062</v>
+        <v>10586</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>9286</v>
+        <v>17262</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N17" s="7">
-        <v>15348</v>
+        <v>27848</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,217 +3889,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7">
-        <v>14503</v>
+        <v>42478</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="I18" s="7">
-        <v>48750</v>
+        <v>144854</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="N18" s="7">
-        <v>63253</v>
+        <v>187333</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7">
-        <v>31892</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H19" s="7">
-        <v>118</v>
-      </c>
-      <c r="I19" s="7">
-        <v>127592</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="M19" s="7">
-        <v>150</v>
-      </c>
-      <c r="N19" s="7">
-        <v>159485</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7">
-        <v>10586</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H20" s="7">
-        <v>17</v>
-      </c>
-      <c r="I20" s="7">
-        <v>17262</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M20" s="7">
-        <v>27</v>
-      </c>
-      <c r="N20" s="7">
-        <v>27848</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>42</v>
-      </c>
-      <c r="D21" s="7">
-        <v>42478</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>135</v>
-      </c>
-      <c r="I21" s="7">
-        <v>144854</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>177</v>
-      </c>
-      <c r="N21" s="7">
-        <v>187333</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
+      <c r="A19" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
